--- a/Sqlite/PowerCalculations.xlsx
+++ b/Sqlite/PowerCalculations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NBSwi\Documents\GitHub\Senior-Design-Project\Sqlite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F1BFF0-5586-457F-A1CD-ACE430DCF6ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D6B3E66-A6F2-4749-855F-6743C285B9E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="6360" windowWidth="29040" windowHeight="15840" xr2:uid="{2A0A7216-6127-4FF1-B172-C53F50184FD6}"/>
+    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{2A0A7216-6127-4FF1-B172-C53F50184FD6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>File:</t>
   </si>
@@ -82,13 +82,25 @@
   </si>
   <si>
     <t>PythonDivideNoPrint</t>
+  </si>
+  <si>
+    <t>PythonAddPrint</t>
+  </si>
+  <si>
+    <t>PythonAddNoPrint</t>
+  </si>
+  <si>
+    <t>PythonPingNoPrint</t>
+  </si>
+  <si>
+    <t>PythonPingPrint</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,6 +120,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -154,10 +173,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Calculation" xfId="1" builtinId="22"/>
@@ -476,18 +496,18 @@
   <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="40.05078125" customWidth="1"/>
-    <col min="2" max="2" width="20.3125" customWidth="1"/>
-    <col min="3" max="3" width="22.9453125" customWidth="1"/>
-    <col min="4" max="4" width="18.20703125" customWidth="1"/>
-    <col min="5" max="5" width="25.9453125" customWidth="1"/>
-    <col min="6" max="6" width="10.83984375" customWidth="1"/>
-    <col min="7" max="7" width="19.5234375" customWidth="1"/>
+    <col min="1" max="1" width="36.83984375" customWidth="1"/>
+    <col min="2" max="2" width="3.20703125" customWidth="1"/>
+    <col min="3" max="3" width="3.1015625" customWidth="1"/>
+    <col min="4" max="4" width="11.20703125" customWidth="1"/>
+    <col min="5" max="5" width="3.15625" customWidth="1"/>
+    <col min="6" max="6" width="4.5234375" customWidth="1"/>
+    <col min="7" max="7" width="2.26171875" customWidth="1"/>
     <col min="8" max="8" width="21.89453125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -629,7 +649,7 @@
         <v>2.4762584958217268E-3</v>
       </c>
       <c r="H5" s="2">
-        <f t="shared" ref="H3:H37" si="2">G5*D5</f>
+        <f t="shared" ref="H5:H37" si="2">G5*D5</f>
         <v>4.8287040668523631E-4</v>
       </c>
       <c r="I5" s="2"/>
@@ -751,87 +771,177 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>3.5619999999999998</v>
+      </c>
+      <c r="C10">
+        <v>2.6579999999999999</v>
+      </c>
       <c r="D10" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G10" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H10" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.90399999999999991</v>
+      </c>
+      <c r="E10">
+        <v>38.475000000000001</v>
+      </c>
+      <c r="F10">
+        <v>1000000</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="1"/>
+        <v>3.8475E-5</v>
+      </c>
+      <c r="H10" s="2">
+        <f t="shared" si="2"/>
+        <v>3.4781399999999999E-5</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11">
+        <v>3.21</v>
+      </c>
+      <c r="C11">
+        <v>2.7629999999999999</v>
+      </c>
       <c r="D11" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H11" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.44700000000000006</v>
+      </c>
+      <c r="E11">
+        <v>2.5819999999999999</v>
+      </c>
+      <c r="F11">
+        <v>1000000</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="1"/>
+        <v>2.582E-6</v>
+      </c>
+      <c r="H11" s="2">
+        <f t="shared" si="2"/>
+        <v>1.1541540000000001E-6</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>2.992</v>
+      </c>
+      <c r="C12">
+        <v>2.6579999999999999</v>
+      </c>
       <c r="D12" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G12" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H12" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.33400000000000007</v>
+      </c>
+      <c r="E12">
+        <v>0.82250000000000001</v>
+      </c>
+      <c r="F12" s="3">
+        <v>359</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="1"/>
+        <v>2.2910863509749304E-3</v>
+      </c>
+      <c r="H12" s="2">
+        <f>G12*D12</f>
+        <v>7.6522284122562689E-4</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>2.9430000000000001</v>
+      </c>
+      <c r="C13">
+        <v>2.819</v>
+      </c>
       <c r="D13" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G13" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H13" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.12400000000000011</v>
+      </c>
+      <c r="E13">
+        <v>0.80640000000000001</v>
+      </c>
+      <c r="F13">
+        <v>359</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="1"/>
+        <v>2.2462395543175486E-3</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="2"/>
+        <v>2.7853370473537625E-4</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>3.0569999999999999</v>
+      </c>
+      <c r="C14">
+        <v>2.8069999999999999</v>
+      </c>
       <c r="D14" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G14" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H14" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.25</v>
+      </c>
+      <c r="E14">
+        <v>5.72</v>
+      </c>
+      <c r="F14">
+        <v>500</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" si="1"/>
+        <v>1.1439999999999999E-2</v>
+      </c>
+      <c r="H14" s="2">
+        <f t="shared" si="2"/>
+        <v>2.8599999999999997E-3</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15">
+        <v>2.972</v>
+      </c>
+      <c r="C15">
+        <v>2.782</v>
+      </c>
       <c r="D15" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G15" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H15" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.18999999999999995</v>
+      </c>
+      <c r="E15">
+        <v>5.1778000000000004</v>
+      </c>
+      <c r="F15">
+        <v>500</v>
+      </c>
+      <c r="G15" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0355600000000001E-2</v>
+      </c>
+      <c r="H15" s="2">
+        <f t="shared" si="2"/>
+        <v>1.9675639999999998E-3</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -966,7 +1076,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="2" t="e">
-        <f t="shared" si="1"/>
+        <f>E25/F25</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H25" s="2" t="e">

--- a/Sqlite/PowerCalculations.xlsx
+++ b/Sqlite/PowerCalculations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NBSwi\Documents\GitHub\Senior-Design-Project\Sqlite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D6B3E66-A6F2-4749-855F-6743C285B9E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA55C857-8FEA-4E4A-B07C-09961E57525D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{2A0A7216-6127-4FF1-B172-C53F50184FD6}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{2A0A7216-6127-4FF1-B172-C53F50184FD6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>File:</t>
   </si>
@@ -51,9 +51,6 @@
     <t>Time/Operation:</t>
   </si>
   <si>
-    <t>AvgPwr/Operation:</t>
-  </si>
-  <si>
     <t>Difference:</t>
   </si>
   <si>
@@ -94,6 +91,21 @@
   </si>
   <si>
     <t>PythonPingPrint</t>
+  </si>
+  <si>
+    <t>AvgPwr/Operation (kwh):</t>
+  </si>
+  <si>
+    <t>AvgPwr/Operation (W/s):</t>
+  </si>
+  <si>
+    <t>(NOV 2021 Duke Energy Home Rate In Oxford, OH)</t>
+  </si>
+  <si>
+    <t>Cost: ($)</t>
+  </si>
+  <si>
+    <t>Electric Rate ($/kwh):</t>
   </si>
 </sst>
 </file>
@@ -173,11 +185,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Calculation" xfId="1" builtinId="22"/>
@@ -493,25 +506,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F6436D3-06E0-4488-AFC5-BF575B334CE9}">
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="36.83984375" customWidth="1"/>
-    <col min="2" max="2" width="3.20703125" customWidth="1"/>
-    <col min="3" max="3" width="3.1015625" customWidth="1"/>
+    <col min="2" max="2" width="19.68359375" customWidth="1"/>
+    <col min="3" max="3" width="20.26171875" customWidth="1"/>
     <col min="4" max="4" width="11.20703125" customWidth="1"/>
-    <col min="5" max="5" width="3.15625" customWidth="1"/>
-    <col min="6" max="6" width="4.5234375" customWidth="1"/>
-    <col min="7" max="7" width="2.26171875" customWidth="1"/>
+    <col min="5" max="5" width="18.68359375" customWidth="1"/>
+    <col min="6" max="6" width="22.3125" customWidth="1"/>
+    <col min="7" max="7" width="15.3671875" customWidth="1"/>
     <col min="8" max="8" width="21.89453125" customWidth="1"/>
+    <col min="9" max="9" width="23.5234375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="23.41796875" style="4" customWidth="1"/>
+    <col min="11" max="11" width="43.62890625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -522,10 +538,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
@@ -534,12 +550,21 @@
         <v>4</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>20</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>3.4860000000000002</v>
@@ -565,10 +590,21 @@
         <f>G2*D2</f>
         <v>2.0067541760000006E-6</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I2" s="2">
+        <f>H2*0.000000277778</f>
+        <v>5.574321615009282E-13</v>
+      </c>
+      <c r="J2" s="4">
+        <f>$K$2*I2</f>
+        <v>1.7549079308372222E-14</v>
+      </c>
+      <c r="K2">
+        <v>3.1482000000000003E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>3.4910000000000001</v>
@@ -594,10 +630,21 @@
         <f>G3*D3</f>
         <v>1.0570469900000002E-6</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I3" s="2">
+        <f t="shared" ref="I3:I37" si="2">H3*0.000000277778</f>
+        <v>2.9362439878822007E-13</v>
+      </c>
+      <c r="J3" s="4">
+        <f t="shared" ref="J3:J37" si="3">$K$2*I3</f>
+        <v>9.2438833226507446E-15</v>
+      </c>
+      <c r="K3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>2.9550000000000001</v>
@@ -623,10 +670,18 @@
         <f>G4*D4</f>
         <v>4.7249502089136499E-4</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I4" s="2">
+        <f t="shared" si="2"/>
+        <v>1.3124872191316158E-10</v>
+      </c>
+      <c r="J4" s="4">
+        <f t="shared" si="3"/>
+        <v>4.1319722632701531E-12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>2.931</v>
@@ -649,14 +704,21 @@
         <v>2.4762584958217268E-3</v>
       </c>
       <c r="H5" s="2">
-        <f t="shared" ref="H5:H37" si="2">G5*D5</f>
+        <f t="shared" ref="H5:H37" si="4">G5*D5</f>
         <v>4.8287040668523631E-4</v>
       </c>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I5" s="2">
+        <f t="shared" si="2"/>
+        <v>1.3413077582821156E-10</v>
+      </c>
+      <c r="J5" s="4">
+        <f t="shared" si="3"/>
+        <v>4.2227050846237564E-12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>2.9910000000000001</v>
@@ -679,13 +741,21 @@
         <v>2.8199999999999997E-6</v>
       </c>
       <c r="H6" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.1843999999999996E-6</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I6" s="2">
+        <f t="shared" si="2"/>
+        <v>3.2900026319999989E-13</v>
+      </c>
+      <c r="J6" s="4">
+        <f t="shared" si="3"/>
+        <v>1.0357586286062398E-14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <v>3.3127499999999999</v>
@@ -708,13 +778,21 @@
         <v>3.7189920999999998E-7</v>
       </c>
       <c r="H7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7.2763923568984695E-8</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I7" s="2">
+        <f t="shared" si="2"/>
+        <v>2.0212217161145431E-14</v>
+      </c>
+      <c r="J7" s="4">
+        <f t="shared" si="3"/>
+        <v>6.3632102066718046E-16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8">
         <v>2.992</v>
@@ -737,13 +815,21 @@
         <v>2.7157966573816156E-3</v>
       </c>
       <c r="H8" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.1328556824512548E-4</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I8" s="2">
+        <f t="shared" si="2"/>
+        <v>1.4257943857599446E-10</v>
+      </c>
+      <c r="J8" s="4">
+        <f t="shared" si="3"/>
+        <v>4.488685885249458E-12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9">
         <v>2.9430000000000001</v>
@@ -766,13 +852,21 @@
         <v>2.6214484679665741E-3</v>
       </c>
       <c r="H9" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.2505961002785548E-4</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I9" s="2">
+        <f t="shared" si="2"/>
+        <v>9.0294408354317637E-11</v>
+      </c>
+      <c r="J9" s="4">
+        <f t="shared" si="3"/>
+        <v>2.8426485638106283E-12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10">
         <v>3.5619999999999998</v>
@@ -795,13 +889,21 @@
         <v>3.8475E-5</v>
       </c>
       <c r="H10" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.4781399999999999E-5</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I10" s="2">
+        <f t="shared" si="2"/>
+        <v>9.6615077291999991E-12</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="3"/>
+        <v>3.0416358633067442E-13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11">
         <v>3.21</v>
@@ -824,13 +926,21 @@
         <v>2.582E-6</v>
       </c>
       <c r="H11" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.1541540000000001E-6</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I11" s="2">
+        <f t="shared" si="2"/>
+        <v>3.2059858981200001E-13</v>
+      </c>
+      <c r="J11" s="4">
+        <f t="shared" si="3"/>
+        <v>1.0093084804461385E-14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12">
         <v>2.992</v>
@@ -856,10 +966,18 @@
         <f>G12*D12</f>
         <v>7.6522284122562689E-4</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I12" s="2">
+        <f t="shared" si="2"/>
+        <v>2.1256207038997219E-10</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" si="3"/>
+        <v>6.6918791000171049E-12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13">
         <v>2.9430000000000001</v>
@@ -882,13 +1000,21 @@
         <v>2.2462395543175486E-3</v>
       </c>
       <c r="H13" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.7853370473537625E-4</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I13" s="2">
+        <f t="shared" si="2"/>
+        <v>7.7370535433983338E-11</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" si="3"/>
+        <v>2.4357791965326635E-12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14">
         <v>3.0569999999999999</v>
@@ -911,13 +1037,21 @@
         <v>1.1439999999999999E-2</v>
       </c>
       <c r="H14" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.8599999999999997E-3</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I14" s="2">
+        <f t="shared" si="2"/>
+        <v>7.9444507999999988E-10</v>
+      </c>
+      <c r="J14" s="4">
+        <f t="shared" si="3"/>
+        <v>2.5010720008559999E-11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15">
         <v>2.972</v>
@@ -940,11 +1074,19 @@
         <v>1.0355600000000001E-2</v>
       </c>
       <c r="H15" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.9675639999999998E-3</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I15" s="2">
+        <f t="shared" si="2"/>
+        <v>5.4654599279199995E-10</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" si="3"/>
+        <v>1.7206360945077745E-11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="D16" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -954,11 +1096,19 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H16" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="17" spans="4:8" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I16" s="2" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J16" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="4:10" x14ac:dyDescent="0.55000000000000004">
       <c r="D17" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -968,11 +1118,19 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H17" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="18" spans="4:8" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I17" s="2" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J17" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="4:10" x14ac:dyDescent="0.55000000000000004">
       <c r="D18" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -982,11 +1140,19 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H18" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="19" spans="4:8" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I18" s="2" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J18" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="4:10" x14ac:dyDescent="0.55000000000000004">
       <c r="D19" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -996,11 +1162,19 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H19" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="20" spans="4:8" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I19" s="2" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J19" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="4:10" x14ac:dyDescent="0.55000000000000004">
       <c r="D20" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1010,11 +1184,19 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H20" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="21" spans="4:8" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I20" s="2" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J20" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="4:10" x14ac:dyDescent="0.55000000000000004">
       <c r="D21" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1024,11 +1206,19 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H21" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="22" spans="4:8" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I21" s="2" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J21" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="4:10" x14ac:dyDescent="0.55000000000000004">
       <c r="D22" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1038,11 +1228,19 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H22" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="23" spans="4:8" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I22" s="2" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J22" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="23" spans="4:10" x14ac:dyDescent="0.55000000000000004">
       <c r="D23" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1052,11 +1250,19 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H23" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="24" spans="4:8" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I23" s="2" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J23" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="24" spans="4:10" x14ac:dyDescent="0.55000000000000004">
       <c r="D24" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1066,11 +1272,19 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H24" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="25" spans="4:8" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I24" s="2" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J24" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="25" spans="4:10" x14ac:dyDescent="0.55000000000000004">
       <c r="D25" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1080,11 +1294,19 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H25" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="26" spans="4:8" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I25" s="2" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J25" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="26" spans="4:10" x14ac:dyDescent="0.55000000000000004">
       <c r="D26" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1094,11 +1316,19 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H26" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="27" spans="4:8" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I26" s="2" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J26" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="27" spans="4:10" x14ac:dyDescent="0.55000000000000004">
       <c r="D27" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1108,11 +1338,19 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H27" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="28" spans="4:8" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I27" s="2" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J27" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="28" spans="4:10" x14ac:dyDescent="0.55000000000000004">
       <c r="D28" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1122,11 +1360,19 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H28" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="29" spans="4:8" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I28" s="2" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J28" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="29" spans="4:10" x14ac:dyDescent="0.55000000000000004">
       <c r="D29" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1136,11 +1382,19 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H29" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="30" spans="4:8" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I29" s="2" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J29" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="30" spans="4:10" x14ac:dyDescent="0.55000000000000004">
       <c r="D30" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1150,11 +1404,19 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H30" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="31" spans="4:8" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I30" s="2" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J30" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="31" spans="4:10" x14ac:dyDescent="0.55000000000000004">
       <c r="D31" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1164,11 +1426,19 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H31" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="32" spans="4:8" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I31" s="2" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J31" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="32" spans="4:10" x14ac:dyDescent="0.55000000000000004">
       <c r="D32" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1178,11 +1448,19 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H32" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="33" spans="4:8" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I32" s="2" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J32" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="33" spans="4:10" x14ac:dyDescent="0.55000000000000004">
       <c r="D33" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1192,11 +1470,19 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H33" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="34" spans="4:8" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I33" s="2" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J33" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="34" spans="4:10" x14ac:dyDescent="0.55000000000000004">
       <c r="D34" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1206,11 +1492,19 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H34" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="35" spans="4:8" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I34" s="2" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J34" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="35" spans="4:10" x14ac:dyDescent="0.55000000000000004">
       <c r="D35" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1220,11 +1514,19 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H35" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="36" spans="4:8" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I35" s="2" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J35" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="36" spans="4:10" x14ac:dyDescent="0.55000000000000004">
       <c r="D36" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1234,11 +1536,19 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H36" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="37" spans="4:8" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I36" s="2" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J36" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="37" spans="4:10" x14ac:dyDescent="0.55000000000000004">
       <c r="D37" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1248,11 +1558,19 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H37" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="38" spans="4:8" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I37" s="2" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J37" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="38" spans="4:10" x14ac:dyDescent="0.55000000000000004">
       <c r="D38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>

--- a/Sqlite/PowerCalculations.xlsx
+++ b/Sqlite/PowerCalculations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NBSwi\Documents\GitHub\Senior-Design-Project\Sqlite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA55C857-8FEA-4E4A-B07C-09961E57525D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E259BDFC-8F69-4B91-ACDF-D6CFFF04EAA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{2A0A7216-6127-4FF1-B172-C53F50184FD6}"/>
   </bookViews>
@@ -509,7 +509,7 @@
   <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>

--- a/Sqlite/PowerCalculations.xlsx
+++ b/Sqlite/PowerCalculations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NBSwi\Documents\GitHub\Senior-Design-Project\Sqlite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E259BDFC-8F69-4B91-ACDF-D6CFFF04EAA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3882CEFE-32E5-46E0-AA56-CC46738AE276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{2A0A7216-6127-4FF1-B172-C53F50184FD6}"/>
   </bookViews>
@@ -185,12 +185,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Calculation" xfId="1" builtinId="22"/>
@@ -509,56 +520,56 @@
   <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="36.83984375" customWidth="1"/>
-    <col min="2" max="2" width="19.68359375" customWidth="1"/>
-    <col min="3" max="3" width="20.26171875" customWidth="1"/>
-    <col min="4" max="4" width="11.20703125" customWidth="1"/>
-    <col min="5" max="5" width="18.68359375" customWidth="1"/>
-    <col min="6" max="6" width="22.3125" customWidth="1"/>
-    <col min="7" max="7" width="15.3671875" customWidth="1"/>
-    <col min="8" max="8" width="21.89453125" customWidth="1"/>
-    <col min="9" max="9" width="23.5234375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="23.41796875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="24.734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.20703125" customWidth="1"/>
+    <col min="3" max="3" width="11.05078125" customWidth="1"/>
+    <col min="4" max="4" width="9.89453125" customWidth="1"/>
+    <col min="5" max="5" width="12.20703125" customWidth="1"/>
+    <col min="6" max="6" width="9.68359375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.62890625" customWidth="1"/>
+    <col min="8" max="8" width="14.41796875" customWidth="1"/>
+    <col min="9" max="9" width="16.734375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.15625" style="3" customWidth="1"/>
     <col min="11" max="11" width="43.62890625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:11" s="7" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="4" t="s">
         <v>23</v>
       </c>
     </row>
@@ -572,7 +583,7 @@
       <c r="C2">
         <v>2.59</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <f>B2-C2</f>
         <v>0.89600000000000035</v>
       </c>
@@ -582,19 +593,19 @@
       <c r="F2">
         <v>1000000</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <f>E2/F2</f>
         <v>2.239681E-6</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="1">
         <f>G2*D2</f>
         <v>2.0067541760000006E-6</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="1">
         <f>H2*0.000000277778</f>
         <v>5.574321615009282E-13</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="3">
         <f>$K$2*I2</f>
         <v>1.7549079308372222E-14</v>
       </c>
@@ -612,7 +623,7 @@
       <c r="C3">
         <v>2.8479999999999999</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <f t="shared" ref="D3:D37" si="0">B3-C3</f>
         <v>0.64300000000000024</v>
       </c>
@@ -622,19 +633,19 @@
       <c r="F3">
         <v>1000000</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
         <f t="shared" ref="G3:G37" si="1">E3/F3</f>
         <v>1.6439299999999998E-6</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="1">
         <f>G3*D3</f>
         <v>1.0570469900000002E-6</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="1">
         <f t="shared" ref="I3:I37" si="2">H3*0.000000277778</f>
         <v>2.9362439878822007E-13</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="3">
         <f t="shared" ref="J3:J37" si="3">$K$2*I3</f>
         <v>9.2438833226507446E-15</v>
       </c>
@@ -652,7 +663,7 @@
       <c r="C4">
         <v>2.81</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <f t="shared" si="0"/>
         <v>0.14500000000000002</v>
       </c>
@@ -662,19 +673,19 @@
       <c r="F4">
         <v>359</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="1">
         <f t="shared" si="1"/>
         <v>3.2585863509749305E-3</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="1">
         <f>G4*D4</f>
         <v>4.7249502089136499E-4</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="1">
         <f t="shared" si="2"/>
         <v>1.3124872191316158E-10</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="3">
         <f t="shared" si="3"/>
         <v>4.1319722632701531E-12</v>
       </c>
@@ -689,7 +700,7 @@
       <c r="C5">
         <v>2.7360000000000002</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <f t="shared" si="0"/>
         <v>0.19499999999999984</v>
       </c>
@@ -699,19 +710,19 @@
       <c r="F5">
         <v>359</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <f t="shared" si="1"/>
         <v>2.4762584958217268E-3</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="1">
         <f t="shared" ref="H5:H37" si="4">G5*D5</f>
         <v>4.8287040668523631E-4</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="1">
         <f t="shared" si="2"/>
         <v>1.3413077582821156E-10</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="3">
         <f t="shared" si="3"/>
         <v>4.2227050846237564E-12</v>
       </c>
@@ -726,7 +737,7 @@
       <c r="C6">
         <v>2.5710000000000002</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <f t="shared" si="0"/>
         <v>0.41999999999999993</v>
       </c>
@@ -736,19 +747,19 @@
       <c r="F6">
         <v>1000000</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
         <f t="shared" si="1"/>
         <v>2.8199999999999997E-6</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="1">
         <f t="shared" si="4"/>
         <v>1.1843999999999996E-6</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="1">
         <f t="shared" si="2"/>
         <v>3.2900026319999989E-13</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="3">
         <f t="shared" si="3"/>
         <v>1.0357586286062398E-14</v>
       </c>
@@ -763,7 +774,7 @@
       <c r="C7">
         <v>3.117095044</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <f t="shared" si="0"/>
         <v>0.19565495599999982</v>
       </c>
@@ -773,19 +784,19 @@
       <c r="F7">
         <v>100000000</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="1">
         <f t="shared" si="1"/>
         <v>3.7189920999999998E-7</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="1">
         <f t="shared" si="4"/>
         <v>7.2763923568984695E-8</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="1">
         <f t="shared" si="2"/>
         <v>2.0212217161145431E-14</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="3">
         <f t="shared" si="3"/>
         <v>6.3632102066718046E-16</v>
       </c>
@@ -800,7 +811,7 @@
       <c r="C8">
         <v>2.8029999999999999</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <f>B8-C8</f>
         <v>0.18900000000000006</v>
       </c>
@@ -810,19 +821,19 @@
       <c r="F8">
         <v>359</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="1">
         <f t="shared" si="1"/>
         <v>2.7157966573816156E-3</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="1">
         <f t="shared" si="4"/>
         <v>5.1328556824512548E-4</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="1">
         <f t="shared" si="2"/>
         <v>1.4257943857599446E-10</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="3">
         <f t="shared" si="3"/>
         <v>4.488685885249458E-12</v>
       </c>
@@ -837,7 +848,7 @@
       <c r="C9">
         <v>2.819</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <f t="shared" si="0"/>
         <v>0.12400000000000011</v>
       </c>
@@ -847,19 +858,19 @@
       <c r="F9">
         <v>359</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="1">
         <f t="shared" si="1"/>
         <v>2.6214484679665741E-3</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="1">
         <f t="shared" si="4"/>
         <v>3.2505961002785548E-4</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="1">
         <f t="shared" si="2"/>
         <v>9.0294408354317637E-11</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="3">
         <f t="shared" si="3"/>
         <v>2.8426485638106283E-12</v>
       </c>
@@ -874,7 +885,7 @@
       <c r="C10">
         <v>2.6579999999999999</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <f t="shared" si="0"/>
         <v>0.90399999999999991</v>
       </c>
@@ -884,19 +895,19 @@
       <c r="F10">
         <v>1000000</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="1">
         <f t="shared" si="1"/>
         <v>3.8475E-5</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="1">
         <f t="shared" si="4"/>
         <v>3.4781399999999999E-5</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="1">
         <f t="shared" si="2"/>
         <v>9.6615077291999991E-12</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="3">
         <f t="shared" si="3"/>
         <v>3.0416358633067442E-13</v>
       </c>
@@ -911,7 +922,7 @@
       <c r="C11">
         <v>2.7629999999999999</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <f t="shared" si="0"/>
         <v>0.44700000000000006</v>
       </c>
@@ -921,19 +932,19 @@
       <c r="F11">
         <v>1000000</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="1">
         <f t="shared" si="1"/>
         <v>2.582E-6</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="1">
         <f t="shared" si="4"/>
         <v>1.1541540000000001E-6</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="1">
         <f t="shared" si="2"/>
         <v>3.2059858981200001E-13</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="3">
         <f t="shared" si="3"/>
         <v>1.0093084804461385E-14</v>
       </c>
@@ -948,29 +959,29 @@
       <c r="C12">
         <v>2.6579999999999999</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="1">
         <f t="shared" si="0"/>
         <v>0.33400000000000007</v>
       </c>
       <c r="E12">
         <v>0.82250000000000001</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="2">
         <v>359</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="1">
         <f t="shared" si="1"/>
         <v>2.2910863509749304E-3</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="1">
         <f>G12*D12</f>
         <v>7.6522284122562689E-4</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="1">
         <f t="shared" si="2"/>
         <v>2.1256207038997219E-10</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="3">
         <f t="shared" si="3"/>
         <v>6.6918791000171049E-12</v>
       </c>
@@ -985,7 +996,7 @@
       <c r="C13">
         <v>2.819</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="1">
         <f t="shared" si="0"/>
         <v>0.12400000000000011</v>
       </c>
@@ -995,19 +1006,19 @@
       <c r="F13">
         <v>359</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="1">
         <f t="shared" si="1"/>
         <v>2.2462395543175486E-3</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="1">
         <f t="shared" si="4"/>
         <v>2.7853370473537625E-4</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="1">
         <f t="shared" si="2"/>
         <v>7.7370535433983338E-11</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="3">
         <f t="shared" si="3"/>
         <v>2.4357791965326635E-12</v>
       </c>
@@ -1022,7 +1033,7 @@
       <c r="C14">
         <v>2.8069999999999999</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
@@ -1032,19 +1043,19 @@
       <c r="F14">
         <v>500</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="1">
         <f t="shared" si="1"/>
         <v>1.1439999999999999E-2</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="1">
         <f t="shared" si="4"/>
         <v>2.8599999999999997E-3</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="1">
         <f t="shared" si="2"/>
         <v>7.9444507999999988E-10</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="3">
         <f t="shared" si="3"/>
         <v>2.5010720008559999E-11</v>
       </c>
@@ -1059,7 +1070,7 @@
       <c r="C15">
         <v>2.782</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="1">
         <f t="shared" si="0"/>
         <v>0.18999999999999995</v>
       </c>
@@ -1069,511 +1080,511 @@
       <c r="F15">
         <v>500</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="1">
         <f t="shared" si="1"/>
         <v>1.0355600000000001E-2</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="1">
         <f t="shared" si="4"/>
         <v>1.9675639999999998E-3</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="1">
         <f t="shared" si="2"/>
         <v>5.4654599279199995E-10</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15" s="3">
         <f t="shared" si="3"/>
         <v>1.7206360945077745E-11</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="D16" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G16" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H16" s="2" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I16" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J16" s="4" t="e">
+      <c r="D16" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H16" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I16" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J16" s="3" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="17" spans="4:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="D17" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G17" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H17" s="2" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I17" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J17" s="4" t="e">
+      <c r="D17" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H17" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I17" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J17" s="3" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="18" spans="4:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="D18" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G18" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H18" s="2" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I18" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J18" s="4" t="e">
+      <c r="D18" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H18" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I18" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J18" s="3" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="19" spans="4:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="D19" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G19" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H19" s="2" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I19" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J19" s="4" t="e">
+      <c r="D19" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H19" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I19" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J19" s="3" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="20" spans="4:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="D20" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G20" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H20" s="2" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I20" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J20" s="4" t="e">
+      <c r="D20" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H20" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I20" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J20" s="3" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="21" spans="4:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="D21" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G21" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H21" s="2" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I21" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J21" s="4" t="e">
+      <c r="D21" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H21" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I21" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J21" s="3" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="22" spans="4:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="D22" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G22" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H22" s="2" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I22" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J22" s="4" t="e">
+      <c r="D22" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H22" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I22" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J22" s="3" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="23" spans="4:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="D23" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G23" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H23" s="2" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I23" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J23" s="4" t="e">
+      <c r="D23" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H23" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I23" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J23" s="3" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="4:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="D24" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G24" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H24" s="2" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I24" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J24" s="4" t="e">
+      <c r="D24" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H24" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I24" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J24" s="3" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="25" spans="4:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="D25" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G25" s="2" t="e">
+      <c r="D25" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="1" t="e">
         <f>E25/F25</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H25" s="2" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I25" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J25" s="4" t="e">
+      <c r="H25" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I25" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J25" s="3" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="26" spans="4:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="D26" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G26" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H26" s="2" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I26" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J26" s="4" t="e">
+      <c r="D26" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H26" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I26" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J26" s="3" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="27" spans="4:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="D27" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G27" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H27" s="2" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I27" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J27" s="4" t="e">
+      <c r="D27" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H27" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I27" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J27" s="3" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="28" spans="4:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="D28" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G28" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H28" s="2" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I28" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J28" s="4" t="e">
+      <c r="D28" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H28" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I28" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J28" s="3" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="29" spans="4:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="D29" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G29" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H29" s="2" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I29" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J29" s="4" t="e">
+      <c r="D29" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H29" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I29" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J29" s="3" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="30" spans="4:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="D30" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G30" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H30" s="2" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I30" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J30" s="4" t="e">
+      <c r="D30" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G30" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H30" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I30" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J30" s="3" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="31" spans="4:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="D31" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G31" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H31" s="2" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I31" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J31" s="4" t="e">
+      <c r="D31" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H31" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I31" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J31" s="3" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="32" spans="4:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="D32" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G32" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H32" s="2" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I32" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J32" s="4" t="e">
+      <c r="D32" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G32" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H32" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I32" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J32" s="3" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="33" spans="4:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="D33" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G33" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H33" s="2" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I33" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J33" s="4" t="e">
+      <c r="D33" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G33" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H33" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I33" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J33" s="3" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="34" spans="4:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="D34" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G34" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H34" s="2" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I34" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J34" s="4" t="e">
+      <c r="D34" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G34" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H34" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I34" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J34" s="3" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="35" spans="4:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="D35" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G35" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H35" s="2" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I35" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J35" s="4" t="e">
+      <c r="D35" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G35" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H35" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I35" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J35" s="3" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="36" spans="4:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="D36" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G36" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H36" s="2" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I36" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J36" s="4" t="e">
+      <c r="D36" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G36" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H36" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I36" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J36" s="3" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="37" spans="4:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="D37" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G37" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H37" s="2" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I37" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J37" s="4" t="e">
+      <c r="D37" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G37" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H37" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I37" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J37" s="3" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="38" spans="4:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="D38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
+      <c r="D38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Sqlite/PowerCalculations.xlsx
+++ b/Sqlite/PowerCalculations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NBSwi\Documents\GitHub\Senior-Design-Project\Sqlite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3882CEFE-32E5-46E0-AA56-CC46738AE276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19CBE86B-C396-4057-8AAB-5DEE13E515DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{2A0A7216-6127-4FF1-B172-C53F50184FD6}"/>
+    <workbookView xWindow="-28920" yWindow="6360" windowWidth="29040" windowHeight="15840" xr2:uid="{2A0A7216-6127-4FF1-B172-C53F50184FD6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -185,7 +185,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -202,6 +202,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="11" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Calculation" xfId="1" builtinId="22"/>
@@ -520,7 +526,7 @@
   <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -531,8 +537,8 @@
     <col min="4" max="4" width="9.89453125" customWidth="1"/>
     <col min="5" max="5" width="12.20703125" customWidth="1"/>
     <col min="6" max="6" width="9.68359375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.62890625" customWidth="1"/>
-    <col min="8" max="8" width="14.41796875" customWidth="1"/>
+    <col min="7" max="7" width="12.62890625" style="10" customWidth="1"/>
+    <col min="8" max="8" width="14.41796875" style="11" customWidth="1"/>
     <col min="9" max="9" width="16.734375" style="1" customWidth="1"/>
     <col min="10" max="10" width="11.15625" style="3" customWidth="1"/>
     <col min="11" max="11" width="43.62890625" customWidth="1"/>
@@ -557,10 +563,10 @@
       <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="6" t="s">
         <v>20</v>
       </c>
       <c r="I1" s="5" t="s">
@@ -593,11 +599,11 @@
       <c r="F2">
         <v>1000000</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="9">
         <f>E2/F2</f>
         <v>2.239681E-6</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="3">
         <f>G2*D2</f>
         <v>2.0067541760000006E-6</v>
       </c>
@@ -633,11 +639,11 @@
       <c r="F3">
         <v>1000000</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="9">
         <f t="shared" ref="G3:G37" si="1">E3/F3</f>
         <v>1.6439299999999998E-6</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="3">
         <f>G3*D3</f>
         <v>1.0570469900000002E-6</v>
       </c>
@@ -673,11 +679,11 @@
       <c r="F4">
         <v>359</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="9">
         <f t="shared" si="1"/>
         <v>3.2585863509749305E-3</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="3">
         <f>G4*D4</f>
         <v>4.7249502089136499E-4</v>
       </c>
@@ -710,11 +716,11 @@
       <c r="F5">
         <v>359</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="9">
         <f t="shared" si="1"/>
         <v>2.4762584958217268E-3</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="3">
         <f t="shared" ref="H5:H37" si="4">G5*D5</f>
         <v>4.8287040668523631E-4</v>
       </c>
@@ -747,11 +753,11 @@
       <c r="F6">
         <v>1000000</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="9">
         <f t="shared" si="1"/>
         <v>2.8199999999999997E-6</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="3">
         <f t="shared" si="4"/>
         <v>1.1843999999999996E-6</v>
       </c>
@@ -784,11 +790,11 @@
       <c r="F7">
         <v>100000000</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="9">
         <f t="shared" si="1"/>
         <v>3.7189920999999998E-7</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="3">
         <f t="shared" si="4"/>
         <v>7.2763923568984695E-8</v>
       </c>
@@ -821,11 +827,11 @@
       <c r="F8">
         <v>359</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="9">
         <f t="shared" si="1"/>
         <v>2.7157966573816156E-3</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="3">
         <f t="shared" si="4"/>
         <v>5.1328556824512548E-4</v>
       </c>
@@ -858,11 +864,11 @@
       <c r="F9">
         <v>359</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="9">
         <f t="shared" si="1"/>
         <v>2.6214484679665741E-3</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="3">
         <f t="shared" si="4"/>
         <v>3.2505961002785548E-4</v>
       </c>
@@ -895,11 +901,11 @@
       <c r="F10">
         <v>1000000</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="9">
         <f t="shared" si="1"/>
         <v>3.8475E-5</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="3">
         <f t="shared" si="4"/>
         <v>3.4781399999999999E-5</v>
       </c>
@@ -932,11 +938,11 @@
       <c r="F11">
         <v>1000000</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="9">
         <f t="shared" si="1"/>
         <v>2.582E-6</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="3">
         <f t="shared" si="4"/>
         <v>1.1541540000000001E-6</v>
       </c>
@@ -969,11 +975,11 @@
       <c r="F12" s="2">
         <v>359</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="9">
         <f t="shared" si="1"/>
         <v>2.2910863509749304E-3</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="3">
         <f>G12*D12</f>
         <v>7.6522284122562689E-4</v>
       </c>
@@ -1006,11 +1012,11 @@
       <c r="F13">
         <v>359</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="9">
         <f t="shared" si="1"/>
         <v>2.2462395543175486E-3</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="3">
         <f t="shared" si="4"/>
         <v>2.7853370473537625E-4</v>
       </c>
@@ -1043,11 +1049,11 @@
       <c r="F14">
         <v>500</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="9">
         <f t="shared" si="1"/>
         <v>1.1439999999999999E-2</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14" s="3">
         <f t="shared" si="4"/>
         <v>2.8599999999999997E-3</v>
       </c>
@@ -1080,11 +1086,11 @@
       <c r="F15">
         <v>500</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="9">
         <f t="shared" si="1"/>
         <v>1.0355600000000001E-2</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15" s="3">
         <f t="shared" si="4"/>
         <v>1.9675639999999998E-3</v>
       </c>
@@ -1102,11 +1108,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G16" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H16" s="1" t="e">
+      <c r="G16" s="9" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H16" s="3" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -1124,11 +1130,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G17" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H17" s="1" t="e">
+      <c r="G17" s="9" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H17" s="3" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -1146,11 +1152,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G18" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H18" s="1" t="e">
+      <c r="G18" s="9" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H18" s="3" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -1168,11 +1174,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G19" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H19" s="1" t="e">
+      <c r="G19" s="9" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H19" s="3" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -1190,11 +1196,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G20" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H20" s="1" t="e">
+      <c r="G20" s="9" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H20" s="3" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -1212,11 +1218,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G21" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H21" s="1" t="e">
+      <c r="G21" s="9" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H21" s="3" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -1234,11 +1240,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G22" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H22" s="1" t="e">
+      <c r="G22" s="9" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H22" s="3" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -1256,11 +1262,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G23" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H23" s="1" t="e">
+      <c r="G23" s="9" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H23" s="3" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -1278,11 +1284,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G24" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H24" s="1" t="e">
+      <c r="G24" s="9" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H24" s="3" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -1300,11 +1306,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G25" s="1" t="e">
+      <c r="G25" s="9" t="e">
         <f>E25/F25</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H25" s="1" t="e">
+      <c r="H25" s="3" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -1322,11 +1328,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G26" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H26" s="1" t="e">
+      <c r="G26" s="9" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H26" s="3" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -1344,11 +1350,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G27" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H27" s="1" t="e">
+      <c r="G27" s="9" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H27" s="3" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -1366,11 +1372,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G28" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H28" s="1" t="e">
+      <c r="G28" s="9" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H28" s="3" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -1388,11 +1394,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G29" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H29" s="1" t="e">
+      <c r="G29" s="9" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H29" s="3" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -1410,11 +1416,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G30" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H30" s="1" t="e">
+      <c r="G30" s="9" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H30" s="3" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -1432,11 +1438,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G31" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H31" s="1" t="e">
+      <c r="G31" s="9" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H31" s="3" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -1454,11 +1460,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G32" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H32" s="1" t="e">
+      <c r="G32" s="9" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H32" s="3" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -1476,11 +1482,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G33" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H33" s="1" t="e">
+      <c r="G33" s="9" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H33" s="3" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -1498,11 +1504,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G34" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H34" s="1" t="e">
+      <c r="G34" s="9" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H34" s="3" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -1520,11 +1526,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G35" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H35" s="1" t="e">
+      <c r="G35" s="9" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H35" s="3" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -1542,11 +1548,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G36" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H36" s="1" t="e">
+      <c r="G36" s="9" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H36" s="3" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -1564,11 +1570,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G37" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H37" s="1" t="e">
+      <c r="G37" s="9" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H37" s="3" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -1583,8 +1589,8 @@
     </row>
     <row r="38" spans="4:10" x14ac:dyDescent="0.55000000000000004">
       <c r="D38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Sqlite/PowerCalculations.xlsx
+++ b/Sqlite/PowerCalculations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NBSwi\Documents\GitHub\Senior-Design-Project\Sqlite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19CBE86B-C396-4057-8AAB-5DEE13E515DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78089670-7CE0-4376-9E7C-F3CAE7823F8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="6360" windowWidth="29040" windowHeight="15840" xr2:uid="{2A0A7216-6127-4FF1-B172-C53F50184FD6}"/>
+    <workbookView xWindow="-57840" yWindow="6240" windowWidth="29280" windowHeight="16080" xr2:uid="{2A0A7216-6127-4FF1-B172-C53F50184FD6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -525,8 +525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F6436D3-06E0-4488-AFC5-BF575B334CE9}">
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -704,11 +704,11 @@
         <v>2.931</v>
       </c>
       <c r="C5">
-        <v>2.7360000000000002</v>
+        <v>2.7589999999999999</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" si="0"/>
-        <v>0.19499999999999984</v>
+        <v>0.17200000000000015</v>
       </c>
       <c r="E5">
         <v>0.88897680000000001</v>
@@ -722,15 +722,15 @@
       </c>
       <c r="H5" s="3">
         <f t="shared" ref="H5:H37" si="4">G5*D5</f>
-        <v>4.8287040668523631E-4</v>
+        <v>4.2591646128133738E-4</v>
       </c>
       <c r="I5" s="1">
         <f t="shared" si="2"/>
-        <v>1.3413077582821156E-10</v>
+        <v>1.1831022278180734E-10</v>
       </c>
       <c r="J5" s="3">
         <f t="shared" si="3"/>
-        <v>4.2227050846237564E-12</v>
+        <v>3.7246424336168591E-12</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
